--- a/_data/MATICUSDT_2h.xlsx
+++ b/_data/MATICUSDT_2h.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1168"/>
+  <dimension ref="A1:F1232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23761,6 +23761,1286 @@
         <v>2664866.2</v>
       </c>
     </row>
+    <row r="1169" spans="1:6">
+      <c r="A1169" s="2">
+        <v>45534.5</v>
+      </c>
+      <c r="B1169">
+        <v>0.4209</v>
+      </c>
+      <c r="C1169">
+        <v>0.4254</v>
+      </c>
+      <c r="D1169">
+        <v>0.4157</v>
+      </c>
+      <c r="E1169">
+        <v>0.4204</v>
+      </c>
+      <c r="F1169">
+        <v>9198405.800000001</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:6">
+      <c r="A1170" s="2">
+        <v>45534.58333333334</v>
+      </c>
+      <c r="B1170">
+        <v>0.4205</v>
+      </c>
+      <c r="C1170">
+        <v>0.4225</v>
+      </c>
+      <c r="D1170">
+        <v>0.399</v>
+      </c>
+      <c r="E1170">
+        <v>0.4016</v>
+      </c>
+      <c r="F1170">
+        <v>20799445.4</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:6">
+      <c r="A1171" s="2">
+        <v>45534.66666666666</v>
+      </c>
+      <c r="B1171">
+        <v>0.4017</v>
+      </c>
+      <c r="C1171">
+        <v>0.4116</v>
+      </c>
+      <c r="D1171">
+        <v>0.4001</v>
+      </c>
+      <c r="E1171">
+        <v>0.4108</v>
+      </c>
+      <c r="F1171">
+        <v>11564426.5</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:6">
+      <c r="A1172" s="2">
+        <v>45534.75</v>
+      </c>
+      <c r="B1172">
+        <v>0.4107</v>
+      </c>
+      <c r="C1172">
+        <v>0.4213</v>
+      </c>
+      <c r="D1172">
+        <v>0.41</v>
+      </c>
+      <c r="E1172">
+        <v>0.4157</v>
+      </c>
+      <c r="F1172">
+        <v>8969279.4</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:6">
+      <c r="A1173" s="2">
+        <v>45534.83333333334</v>
+      </c>
+      <c r="B1173">
+        <v>0.4157</v>
+      </c>
+      <c r="C1173">
+        <v>0.4203</v>
+      </c>
+      <c r="D1173">
+        <v>0.4155</v>
+      </c>
+      <c r="E1173">
+        <v>0.4196</v>
+      </c>
+      <c r="F1173">
+        <v>2855969</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:6">
+      <c r="A1174" s="2">
+        <v>45534.91666666666</v>
+      </c>
+      <c r="B1174">
+        <v>0.4196</v>
+      </c>
+      <c r="C1174">
+        <v>0.4219</v>
+      </c>
+      <c r="D1174">
+        <v>0.4191</v>
+      </c>
+      <c r="E1174">
+        <v>0.421</v>
+      </c>
+      <c r="F1174">
+        <v>3835978.5</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:6">
+      <c r="A1175" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1175">
+        <v>0.421</v>
+      </c>
+      <c r="C1175">
+        <v>0.4241</v>
+      </c>
+      <c r="D1175">
+        <v>0.4198</v>
+      </c>
+      <c r="E1175">
+        <v>0.4219</v>
+      </c>
+      <c r="F1175">
+        <v>3330259.8</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:6">
+      <c r="A1176" s="2">
+        <v>45535.08333333334</v>
+      </c>
+      <c r="B1176">
+        <v>0.4219</v>
+      </c>
+      <c r="C1176">
+        <v>0.4256</v>
+      </c>
+      <c r="D1176">
+        <v>0.4208</v>
+      </c>
+      <c r="E1176">
+        <v>0.4242</v>
+      </c>
+      <c r="F1176">
+        <v>3236084.1</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:6">
+      <c r="A1177" s="2">
+        <v>45535.16666666666</v>
+      </c>
+      <c r="B1177">
+        <v>0.4242</v>
+      </c>
+      <c r="C1177">
+        <v>0.427</v>
+      </c>
+      <c r="D1177">
+        <v>0.4231</v>
+      </c>
+      <c r="E1177">
+        <v>0.4238</v>
+      </c>
+      <c r="F1177">
+        <v>4195562.6</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:6">
+      <c r="A1178" s="2">
+        <v>45535.25</v>
+      </c>
+      <c r="B1178">
+        <v>0.4238</v>
+      </c>
+      <c r="C1178">
+        <v>0.4253</v>
+      </c>
+      <c r="D1178">
+        <v>0.4217</v>
+      </c>
+      <c r="E1178">
+        <v>0.4218</v>
+      </c>
+      <c r="F1178">
+        <v>2994097.3</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:6">
+      <c r="A1179" s="2">
+        <v>45535.33333333334</v>
+      </c>
+      <c r="B1179">
+        <v>0.4218</v>
+      </c>
+      <c r="C1179">
+        <v>0.4236</v>
+      </c>
+      <c r="D1179">
+        <v>0.4181</v>
+      </c>
+      <c r="E1179">
+        <v>0.4194</v>
+      </c>
+      <c r="F1179">
+        <v>3941032.5</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:6">
+      <c r="A1180" s="2">
+        <v>45535.41666666666</v>
+      </c>
+      <c r="B1180">
+        <v>0.4194</v>
+      </c>
+      <c r="C1180">
+        <v>0.4244</v>
+      </c>
+      <c r="D1180">
+        <v>0.4193</v>
+      </c>
+      <c r="E1180">
+        <v>0.4224</v>
+      </c>
+      <c r="F1180">
+        <v>3791242.3</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:6">
+      <c r="A1181" s="2">
+        <v>45535.5</v>
+      </c>
+      <c r="B1181">
+        <v>0.4224</v>
+      </c>
+      <c r="C1181">
+        <v>0.4225</v>
+      </c>
+      <c r="D1181">
+        <v>0.4185</v>
+      </c>
+      <c r="E1181">
+        <v>0.4188</v>
+      </c>
+      <c r="F1181">
+        <v>3291590.9</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:6">
+      <c r="A1182" s="2">
+        <v>45535.58333333334</v>
+      </c>
+      <c r="B1182">
+        <v>0.4189</v>
+      </c>
+      <c r="C1182">
+        <v>0.4215</v>
+      </c>
+      <c r="D1182">
+        <v>0.4181</v>
+      </c>
+      <c r="E1182">
+        <v>0.4214</v>
+      </c>
+      <c r="F1182">
+        <v>4815152.9</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:6">
+      <c r="A1183" s="2">
+        <v>45535.66666666666</v>
+      </c>
+      <c r="B1183">
+        <v>0.4214</v>
+      </c>
+      <c r="C1183">
+        <v>0.4215</v>
+      </c>
+      <c r="D1183">
+        <v>0.4173</v>
+      </c>
+      <c r="E1183">
+        <v>0.4194</v>
+      </c>
+      <c r="F1183">
+        <v>6736648.2</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:6">
+      <c r="A1184" s="2">
+        <v>45535.75</v>
+      </c>
+      <c r="B1184">
+        <v>0.4194</v>
+      </c>
+      <c r="C1184">
+        <v>0.4233</v>
+      </c>
+      <c r="D1184">
+        <v>0.4179</v>
+      </c>
+      <c r="E1184">
+        <v>0.4191</v>
+      </c>
+      <c r="F1184">
+        <v>2274342.4</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:6">
+      <c r="A1185" s="2">
+        <v>45535.83333333334</v>
+      </c>
+      <c r="B1185">
+        <v>0.4191</v>
+      </c>
+      <c r="C1185">
+        <v>0.4198</v>
+      </c>
+      <c r="D1185">
+        <v>0.4179</v>
+      </c>
+      <c r="E1185">
+        <v>0.4194</v>
+      </c>
+      <c r="F1185">
+        <v>1103924.6</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:6">
+      <c r="A1186" s="2">
+        <v>45535.91666666666</v>
+      </c>
+      <c r="B1186">
+        <v>0.4209</v>
+      </c>
+      <c r="C1186">
+        <v>0.4209</v>
+      </c>
+      <c r="D1186">
+        <v>0.4188</v>
+      </c>
+      <c r="E1186">
+        <v>0.4196</v>
+      </c>
+      <c r="F1186">
+        <v>1196986.3</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:6">
+      <c r="A1187" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B1187">
+        <v>0.4196</v>
+      </c>
+      <c r="C1187">
+        <v>0.4203</v>
+      </c>
+      <c r="D1187">
+        <v>0.4146</v>
+      </c>
+      <c r="E1187">
+        <v>0.4148</v>
+      </c>
+      <c r="F1187">
+        <v>1598104.6</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:6">
+      <c r="A1188" s="2">
+        <v>45536.08333333334</v>
+      </c>
+      <c r="B1188">
+        <v>0.4148</v>
+      </c>
+      <c r="C1188">
+        <v>0.4164</v>
+      </c>
+      <c r="D1188">
+        <v>0.4106</v>
+      </c>
+      <c r="E1188">
+        <v>0.4148</v>
+      </c>
+      <c r="F1188">
+        <v>3975380</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:6">
+      <c r="A1189" s="2">
+        <v>45536.16666666666</v>
+      </c>
+      <c r="B1189">
+        <v>0.4148</v>
+      </c>
+      <c r="C1189">
+        <v>0.4149</v>
+      </c>
+      <c r="D1189">
+        <v>0.4057</v>
+      </c>
+      <c r="E1189">
+        <v>0.4064</v>
+      </c>
+      <c r="F1189">
+        <v>4881467.4</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:6">
+      <c r="A1190" s="2">
+        <v>45536.25</v>
+      </c>
+      <c r="B1190">
+        <v>0.4065</v>
+      </c>
+      <c r="C1190">
+        <v>0.4107</v>
+      </c>
+      <c r="D1190">
+        <v>0.4059</v>
+      </c>
+      <c r="E1190">
+        <v>0.4106</v>
+      </c>
+      <c r="F1190">
+        <v>5683429.1</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:6">
+      <c r="A1191" s="2">
+        <v>45536.33333333334</v>
+      </c>
+      <c r="B1191">
+        <v>0.4107</v>
+      </c>
+      <c r="C1191">
+        <v>0.4122</v>
+      </c>
+      <c r="D1191">
+        <v>0.4091</v>
+      </c>
+      <c r="E1191">
+        <v>0.4105</v>
+      </c>
+      <c r="F1191">
+        <v>3719244.8</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:6">
+      <c r="A1192" s="2">
+        <v>45536.41666666666</v>
+      </c>
+      <c r="B1192">
+        <v>0.4104</v>
+      </c>
+      <c r="C1192">
+        <v>0.4129</v>
+      </c>
+      <c r="D1192">
+        <v>0.4077</v>
+      </c>
+      <c r="E1192">
+        <v>0.4127</v>
+      </c>
+      <c r="F1192">
+        <v>4360750.7</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:6">
+      <c r="A1193" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="B1193">
+        <v>0.4126</v>
+      </c>
+      <c r="C1193">
+        <v>0.4135</v>
+      </c>
+      <c r="D1193">
+        <v>0.405</v>
+      </c>
+      <c r="E1193">
+        <v>0.4077</v>
+      </c>
+      <c r="F1193">
+        <v>4037056.5</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:6">
+      <c r="A1194" s="2">
+        <v>45536.58333333334</v>
+      </c>
+      <c r="B1194">
+        <v>0.4076</v>
+      </c>
+      <c r="C1194">
+        <v>0.412</v>
+      </c>
+      <c r="D1194">
+        <v>0.4014</v>
+      </c>
+      <c r="E1194">
+        <v>0.4108</v>
+      </c>
+      <c r="F1194">
+        <v>8377985.1</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:6">
+      <c r="A1195" s="2">
+        <v>45536.66666666666</v>
+      </c>
+      <c r="B1195">
+        <v>0.4108</v>
+      </c>
+      <c r="C1195">
+        <v>0.4124</v>
+      </c>
+      <c r="D1195">
+        <v>0.4044</v>
+      </c>
+      <c r="E1195">
+        <v>0.4058</v>
+      </c>
+      <c r="F1195">
+        <v>4665393.9</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:6">
+      <c r="A1196" s="2">
+        <v>45536.75</v>
+      </c>
+      <c r="B1196">
+        <v>0.4057</v>
+      </c>
+      <c r="C1196">
+        <v>0.4136</v>
+      </c>
+      <c r="D1196">
+        <v>0.4055</v>
+      </c>
+      <c r="E1196">
+        <v>0.4133</v>
+      </c>
+      <c r="F1196">
+        <v>5024926.4</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:6">
+      <c r="A1197" s="2">
+        <v>45536.83333333334</v>
+      </c>
+      <c r="B1197">
+        <v>0.4132</v>
+      </c>
+      <c r="C1197">
+        <v>0.4162</v>
+      </c>
+      <c r="D1197">
+        <v>0.408</v>
+      </c>
+      <c r="E1197">
+        <v>0.4105</v>
+      </c>
+      <c r="F1197">
+        <v>3731954.8</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:6">
+      <c r="A1198" s="2">
+        <v>45536.91666666666</v>
+      </c>
+      <c r="B1198">
+        <v>0.4105</v>
+      </c>
+      <c r="C1198">
+        <v>0.4108</v>
+      </c>
+      <c r="D1198">
+        <v>0.3967</v>
+      </c>
+      <c r="E1198">
+        <v>0.4023</v>
+      </c>
+      <c r="F1198">
+        <v>7960578.4</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:6">
+      <c r="A1199" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B1199">
+        <v>0.4022</v>
+      </c>
+      <c r="C1199">
+        <v>0.4071</v>
+      </c>
+      <c r="D1199">
+        <v>0.4012</v>
+      </c>
+      <c r="E1199">
+        <v>0.4046</v>
+      </c>
+      <c r="F1199">
+        <v>3706815.5</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:6">
+      <c r="A1200" s="2">
+        <v>45537.08333333334</v>
+      </c>
+      <c r="B1200">
+        <v>0.4046</v>
+      </c>
+      <c r="C1200">
+        <v>0.409</v>
+      </c>
+      <c r="D1200">
+        <v>0.4042</v>
+      </c>
+      <c r="E1200">
+        <v>0.4072</v>
+      </c>
+      <c r="F1200">
+        <v>3968256.8</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:6">
+      <c r="A1201" s="2">
+        <v>45537.16666666666</v>
+      </c>
+      <c r="B1201">
+        <v>0.4073</v>
+      </c>
+      <c r="C1201">
+        <v>0.4083</v>
+      </c>
+      <c r="D1201">
+        <v>0.4005</v>
+      </c>
+      <c r="E1201">
+        <v>0.4067</v>
+      </c>
+      <c r="F1201">
+        <v>6684150.4</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:6">
+      <c r="A1202" s="2">
+        <v>45537.25</v>
+      </c>
+      <c r="B1202">
+        <v>0.4067</v>
+      </c>
+      <c r="C1202">
+        <v>0.4083</v>
+      </c>
+      <c r="D1202">
+        <v>0.4002</v>
+      </c>
+      <c r="E1202">
+        <v>0.4015</v>
+      </c>
+      <c r="F1202">
+        <v>5748045.6</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:6">
+      <c r="A1203" s="2">
+        <v>45537.33333333334</v>
+      </c>
+      <c r="B1203">
+        <v>0.4015</v>
+      </c>
+      <c r="C1203">
+        <v>0.406</v>
+      </c>
+      <c r="D1203">
+        <v>0.3987</v>
+      </c>
+      <c r="E1203">
+        <v>0.4039</v>
+      </c>
+      <c r="F1203">
+        <v>15704896.6</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:6">
+      <c r="A1204" s="2">
+        <v>45537.41666666666</v>
+      </c>
+      <c r="B1204">
+        <v>0.4038</v>
+      </c>
+      <c r="C1204">
+        <v>0.4093</v>
+      </c>
+      <c r="D1204">
+        <v>0.4022</v>
+      </c>
+      <c r="E1204">
+        <v>0.4055</v>
+      </c>
+      <c r="F1204">
+        <v>9733844.300000001</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:6">
+      <c r="A1205" s="2">
+        <v>45537.5</v>
+      </c>
+      <c r="B1205">
+        <v>0.4056</v>
+      </c>
+      <c r="C1205">
+        <v>0.4061</v>
+      </c>
+      <c r="D1205">
+        <v>0.3982</v>
+      </c>
+      <c r="E1205">
+        <v>0.4</v>
+      </c>
+      <c r="F1205">
+        <v>9536347.5</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:6">
+      <c r="A1206" s="2">
+        <v>45537.58333333334</v>
+      </c>
+      <c r="B1206">
+        <v>0.4001</v>
+      </c>
+      <c r="C1206">
+        <v>0.4045</v>
+      </c>
+      <c r="D1206">
+        <v>0.3956</v>
+      </c>
+      <c r="E1206">
+        <v>0.4034</v>
+      </c>
+      <c r="F1206">
+        <v>12359047.8</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:6">
+      <c r="A1207" s="2">
+        <v>45537.66666666666</v>
+      </c>
+      <c r="B1207">
+        <v>0.4033</v>
+      </c>
+      <c r="C1207">
+        <v>0.4072</v>
+      </c>
+      <c r="D1207">
+        <v>0.4016</v>
+      </c>
+      <c r="E1207">
+        <v>0.4069</v>
+      </c>
+      <c r="F1207">
+        <v>4138916.1</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:6">
+      <c r="A1208" s="2">
+        <v>45537.75</v>
+      </c>
+      <c r="B1208">
+        <v>0.4069</v>
+      </c>
+      <c r="C1208">
+        <v>0.4091</v>
+      </c>
+      <c r="D1208">
+        <v>0.4051</v>
+      </c>
+      <c r="E1208">
+        <v>0.4066</v>
+      </c>
+      <c r="F1208">
+        <v>2906117.5</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:6">
+      <c r="A1209" s="2">
+        <v>45537.83333333334</v>
+      </c>
+      <c r="B1209">
+        <v>0.4067</v>
+      </c>
+      <c r="C1209">
+        <v>0.415</v>
+      </c>
+      <c r="D1209">
+        <v>0.4058</v>
+      </c>
+      <c r="E1209">
+        <v>0.4116</v>
+      </c>
+      <c r="F1209">
+        <v>5963414.7</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:6">
+      <c r="A1210" s="2">
+        <v>45537.91666666666</v>
+      </c>
+      <c r="B1210">
+        <v>0.4116</v>
+      </c>
+      <c r="C1210">
+        <v>0.4129</v>
+      </c>
+      <c r="D1210">
+        <v>0.4104</v>
+      </c>
+      <c r="E1210">
+        <v>0.4108</v>
+      </c>
+      <c r="F1210">
+        <v>1995340.8</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:6">
+      <c r="A1211" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B1211">
+        <v>0.4108</v>
+      </c>
+      <c r="C1211">
+        <v>0.4108</v>
+      </c>
+      <c r="D1211">
+        <v>0.4075</v>
+      </c>
+      <c r="E1211">
+        <v>0.4099</v>
+      </c>
+      <c r="F1211">
+        <v>3047355.4</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:6">
+      <c r="A1212" s="2">
+        <v>45538.08333333334</v>
+      </c>
+      <c r="B1212">
+        <v>0.4099</v>
+      </c>
+      <c r="C1212">
+        <v>0.415</v>
+      </c>
+      <c r="D1212">
+        <v>0.4091</v>
+      </c>
+      <c r="E1212">
+        <v>0.4104</v>
+      </c>
+      <c r="F1212">
+        <v>8412503</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:6">
+      <c r="A1213" s="2">
+        <v>45538.16666666666</v>
+      </c>
+      <c r="B1213">
+        <v>0.4103</v>
+      </c>
+      <c r="C1213">
+        <v>0.4128</v>
+      </c>
+      <c r="D1213">
+        <v>0.4094</v>
+      </c>
+      <c r="E1213">
+        <v>0.4128</v>
+      </c>
+      <c r="F1213">
+        <v>5064586.9</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:6">
+      <c r="A1214" s="2">
+        <v>45538.25</v>
+      </c>
+      <c r="B1214">
+        <v>0.4127</v>
+      </c>
+      <c r="C1214">
+        <v>0.4129</v>
+      </c>
+      <c r="D1214">
+        <v>0.4099</v>
+      </c>
+      <c r="E1214">
+        <v>0.4126</v>
+      </c>
+      <c r="F1214">
+        <v>6430799.6</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:6">
+      <c r="A1215" s="2">
+        <v>45538.33333333334</v>
+      </c>
+      <c r="B1215">
+        <v>0.4127</v>
+      </c>
+      <c r="C1215">
+        <v>0.4128</v>
+      </c>
+      <c r="D1215">
+        <v>0.4057</v>
+      </c>
+      <c r="E1215">
+        <v>0.4073</v>
+      </c>
+      <c r="F1215">
+        <v>5810397.4</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:6">
+      <c r="A1216" s="2">
+        <v>45538.41666666666</v>
+      </c>
+      <c r="B1216">
+        <v>0.4073</v>
+      </c>
+      <c r="C1216">
+        <v>0.4107</v>
+      </c>
+      <c r="D1216">
+        <v>0.4073</v>
+      </c>
+      <c r="E1216">
+        <v>0.4079</v>
+      </c>
+      <c r="F1216">
+        <v>5582405.6</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:6">
+      <c r="A1217" s="2">
+        <v>45538.5</v>
+      </c>
+      <c r="B1217">
+        <v>0.408</v>
+      </c>
+      <c r="C1217">
+        <v>0.4095</v>
+      </c>
+      <c r="D1217">
+        <v>0.3998</v>
+      </c>
+      <c r="E1217">
+        <v>0.4027</v>
+      </c>
+      <c r="F1217">
+        <v>8381071.5</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:6">
+      <c r="A1218" s="2">
+        <v>45538.58333333334</v>
+      </c>
+      <c r="B1218">
+        <v>0.4027</v>
+      </c>
+      <c r="C1218">
+        <v>0.4127</v>
+      </c>
+      <c r="D1218">
+        <v>0.4002</v>
+      </c>
+      <c r="E1218">
+        <v>0.4058</v>
+      </c>
+      <c r="F1218">
+        <v>15357562.4</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:6">
+      <c r="A1219" s="2">
+        <v>45538.66666666666</v>
+      </c>
+      <c r="B1219">
+        <v>0.4058</v>
+      </c>
+      <c r="C1219">
+        <v>0.4072</v>
+      </c>
+      <c r="D1219">
+        <v>0.3996</v>
+      </c>
+      <c r="E1219">
+        <v>0.4002</v>
+      </c>
+      <c r="F1219">
+        <v>7915846.4</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:6">
+      <c r="A1220" s="2">
+        <v>45538.75</v>
+      </c>
+      <c r="B1220">
+        <v>0.4003</v>
+      </c>
+      <c r="C1220">
+        <v>0.405</v>
+      </c>
+      <c r="D1220">
+        <v>0.3982</v>
+      </c>
+      <c r="E1220">
+        <v>0.4031</v>
+      </c>
+      <c r="F1220">
+        <v>2902158.4</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:6">
+      <c r="A1221" s="2">
+        <v>45538.83333333334</v>
+      </c>
+      <c r="B1221">
+        <v>0.4032</v>
+      </c>
+      <c r="C1221">
+        <v>0.4059</v>
+      </c>
+      <c r="D1221">
+        <v>0.4015</v>
+      </c>
+      <c r="E1221">
+        <v>0.4027</v>
+      </c>
+      <c r="F1221">
+        <v>7009858.3</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:6">
+      <c r="A1222" s="2">
+        <v>45538.91666666666</v>
+      </c>
+      <c r="B1222">
+        <v>0.4027</v>
+      </c>
+      <c r="C1222">
+        <v>0.4037</v>
+      </c>
+      <c r="D1222">
+        <v>0.3965</v>
+      </c>
+      <c r="E1222">
+        <v>0.3978</v>
+      </c>
+      <c r="F1222">
+        <v>4699639.8</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:6">
+      <c r="A1223" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B1223">
+        <v>0.3978</v>
+      </c>
+      <c r="C1223">
+        <v>0.4003</v>
+      </c>
+      <c r="D1223">
+        <v>0.3781</v>
+      </c>
+      <c r="E1223">
+        <v>0.3906</v>
+      </c>
+      <c r="F1223">
+        <v>18717904.5</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:6">
+      <c r="A1224" s="2">
+        <v>45539.08333333334</v>
+      </c>
+      <c r="B1224">
+        <v>0.3907</v>
+      </c>
+      <c r="C1224">
+        <v>0.3923</v>
+      </c>
+      <c r="D1224">
+        <v>0.3886</v>
+      </c>
+      <c r="E1224">
+        <v>0.3893</v>
+      </c>
+      <c r="F1224">
+        <v>7502502.5</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:6">
+      <c r="A1225" s="2">
+        <v>45539.16666666666</v>
+      </c>
+      <c r="B1225">
+        <v>0.3893</v>
+      </c>
+      <c r="C1225">
+        <v>0.3906</v>
+      </c>
+      <c r="D1225">
+        <v>0.3839</v>
+      </c>
+      <c r="E1225">
+        <v>0.3845</v>
+      </c>
+      <c r="F1225">
+        <v>6627530.4</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:6">
+      <c r="A1226" s="2">
+        <v>45539.25</v>
+      </c>
+      <c r="B1226">
+        <v>0.3844</v>
+      </c>
+      <c r="C1226">
+        <v>0.393</v>
+      </c>
+      <c r="D1226">
+        <v>0.3843</v>
+      </c>
+      <c r="E1226">
+        <v>0.3896</v>
+      </c>
+      <c r="F1226">
+        <v>8173478.1</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:6">
+      <c r="A1227" s="2">
+        <v>45539.33333333334</v>
+      </c>
+      <c r="B1227">
+        <v>0.3895</v>
+      </c>
+      <c r="C1227">
+        <v>0.3895</v>
+      </c>
+      <c r="D1227">
+        <v>0.35</v>
+      </c>
+      <c r="E1227">
+        <v>0.3744</v>
+      </c>
+      <c r="F1227">
+        <v>52295760.2</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:6">
+      <c r="A1228" s="2">
+        <v>45539.41666666666</v>
+      </c>
+      <c r="B1228">
+        <v>0.3743</v>
+      </c>
+      <c r="C1228">
+        <v>0.3745</v>
+      </c>
+      <c r="D1228">
+        <v>0.3672</v>
+      </c>
+      <c r="E1228">
+        <v>0.3738</v>
+      </c>
+      <c r="F1228">
+        <v>11442791</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:6">
+      <c r="A1229" s="2">
+        <v>45539.5</v>
+      </c>
+      <c r="B1229">
+        <v>0.3738</v>
+      </c>
+      <c r="C1229">
+        <v>0.3769</v>
+      </c>
+      <c r="D1229">
+        <v>0.3714</v>
+      </c>
+      <c r="E1229">
+        <v>0.3748</v>
+      </c>
+      <c r="F1229">
+        <v>6426266.6</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:6">
+      <c r="A1230" s="2">
+        <v>45539.58333333334</v>
+      </c>
+      <c r="B1230">
+        <v>0.3747</v>
+      </c>
+      <c r="C1230">
+        <v>0.385</v>
+      </c>
+      <c r="D1230">
+        <v>0.3733</v>
+      </c>
+      <c r="E1230">
+        <v>0.3845</v>
+      </c>
+      <c r="F1230">
+        <v>7979953.1</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:6">
+      <c r="A1231" s="2">
+        <v>45539.66666666666</v>
+      </c>
+      <c r="B1231">
+        <v>0.3847</v>
+      </c>
+      <c r="C1231">
+        <v>0.3921</v>
+      </c>
+      <c r="D1231">
+        <v>0.3806</v>
+      </c>
+      <c r="E1231">
+        <v>0.3834</v>
+      </c>
+      <c r="F1231">
+        <v>11030555.1</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:6">
+      <c r="A1232" s="2">
+        <v>45539.75</v>
+      </c>
+      <c r="B1232">
+        <v>0.3833</v>
+      </c>
+      <c r="C1232">
+        <v>0.3838</v>
+      </c>
+      <c r="D1232">
+        <v>0.3799</v>
+      </c>
+      <c r="E1232">
+        <v>0.3812</v>
+      </c>
+      <c r="F1232">
+        <v>1639687.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
